--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>571.828580150142</v>
+        <v>2.577136</v>
       </c>
       <c r="H2">
-        <v>571.828580150142</v>
+        <v>7.731408</v>
       </c>
       <c r="I2">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814818</v>
       </c>
       <c r="J2">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.87998551349961</v>
+        <v>0.353194</v>
       </c>
       <c r="N2">
-        <v>1.87998551349961</v>
+        <v>1.059582</v>
       </c>
       <c r="O2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q2">
-        <v>1075.029446887318</v>
+        <v>0.910228972384</v>
       </c>
       <c r="R2">
-        <v>1075.029446887318</v>
+        <v>8.192060751456001</v>
       </c>
       <c r="S2">
-        <v>0.08332927556472867</v>
+        <v>6.858787447836476E-05</v>
       </c>
       <c r="T2">
-        <v>0.08332927556472867</v>
+        <v>6.858787447836477E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>571.828580150142</v>
+        <v>2.577136</v>
       </c>
       <c r="H3">
-        <v>571.828580150142</v>
+        <v>7.731408</v>
       </c>
       <c r="I3">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814818</v>
       </c>
       <c r="J3">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204035667047674</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N3">
-        <v>0.204035667047674</v>
+        <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q3">
-        <v>116.6734257878585</v>
+        <v>4.871524959941333</v>
       </c>
       <c r="R3">
-        <v>116.6734257878585</v>
+        <v>43.843724639472</v>
       </c>
       <c r="S3">
-        <v>0.009043763477091486</v>
+        <v>0.0003670807594660018</v>
       </c>
       <c r="T3">
-        <v>0.009043763477091486</v>
+        <v>0.0003670807594660019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>571.828580150142</v>
+        <v>2.577136</v>
       </c>
       <c r="H4">
-        <v>571.828580150142</v>
+        <v>7.731408</v>
       </c>
       <c r="I4">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814818</v>
       </c>
       <c r="J4">
-        <v>0.8813130347183056</v>
+        <v>0.003954353169814819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.7992158558983</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N4">
-        <v>17.7992158558983</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q4">
-        <v>10178.10033066422</v>
+        <v>0.5804062480586666</v>
       </c>
       <c r="R4">
-        <v>10178.10033066422</v>
+        <v>5.223656232528</v>
       </c>
       <c r="S4">
-        <v>0.7889399956764853</v>
+        <v>4.373496350488857E-05</v>
       </c>
       <c r="T4">
-        <v>0.7889399956764853</v>
+        <v>4.373496350488858E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.0769835158829368</v>
+        <v>2.577136</v>
       </c>
       <c r="H5">
-        <v>0.0769835158829368</v>
+        <v>7.731408</v>
       </c>
       <c r="I5">
-        <v>0.0001186484522831332</v>
+        <v>0.003954353169814818</v>
       </c>
       <c r="J5">
-        <v>0.0001186484522831332</v>
+        <v>0.003954353169814819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87998551349961</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N5">
-        <v>1.87998551349961</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q5">
-        <v>0.1447278946381883</v>
+        <v>46.11601981248533</v>
       </c>
       <c r="R5">
-        <v>0.1447278946381883</v>
+        <v>415.044178312368</v>
       </c>
       <c r="S5">
-        <v>1.121836304031281E-05</v>
+        <v>0.003474949572365563</v>
       </c>
       <c r="T5">
-        <v>1.121836304031281E-05</v>
+        <v>0.003474949572365564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0769835158829368</v>
+        <v>571.9702353333333</v>
       </c>
       <c r="H6">
-        <v>0.0769835158829368</v>
+        <v>1715.910706</v>
       </c>
       <c r="I6">
-        <v>0.0001186484522831332</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="J6">
-        <v>0.0001186484522831332</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.204035667047674</v>
+        <v>0.353194</v>
       </c>
       <c r="N6">
-        <v>0.204035667047674</v>
+        <v>1.059582</v>
       </c>
       <c r="O6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q6">
-        <v>0.01570738301485022</v>
+        <v>202.0164552983213</v>
       </c>
       <c r="R6">
-        <v>0.01570738301485022</v>
+        <v>1818.148097684892</v>
       </c>
       <c r="S6">
-        <v>1.217533948893204E-06</v>
+        <v>0.01522241073284585</v>
       </c>
       <c r="T6">
-        <v>1.217533948893204E-06</v>
+        <v>0.01522241073284585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0769835158829368</v>
+        <v>571.9702353333333</v>
       </c>
       <c r="H7">
-        <v>0.0769835158829368</v>
+        <v>1715.910706</v>
       </c>
       <c r="I7">
-        <v>0.0001186484522831332</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="J7">
-        <v>0.0001186484522831332</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7992158558983</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N7">
-        <v>17.7992158558983</v>
+        <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q7">
-        <v>1.370246216546367</v>
+        <v>1081.18751892405</v>
       </c>
       <c r="R7">
-        <v>1.370246216546367</v>
+        <v>9730.687670316454</v>
       </c>
       <c r="S7">
-        <v>0.0001062125552939271</v>
+        <v>0.08146999940170321</v>
       </c>
       <c r="T7">
-        <v>0.0001062125552939271</v>
+        <v>0.08146999940170321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9315210287632</v>
+        <v>571.9702353333333</v>
       </c>
       <c r="H8">
-        <v>76.9315210287632</v>
+        <v>1715.910706</v>
       </c>
       <c r="I8">
-        <v>0.1185683168294113</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="J8">
-        <v>0.1185683168294113</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.87998551349961</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N8">
-        <v>1.87998551349961</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q8">
-        <v>144.6301450655654</v>
+        <v>128.8155139236162</v>
       </c>
       <c r="R8">
-        <v>144.6301450655654</v>
+        <v>1159.339625312546</v>
       </c>
       <c r="S8">
-        <v>0.01121078613058535</v>
+        <v>0.009706549195768428</v>
       </c>
       <c r="T8">
-        <v>0.01121078613058535</v>
+        <v>0.009706549195768428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9315210287632</v>
+        <v>571.9702353333333</v>
       </c>
       <c r="H9">
-        <v>76.9315210287632</v>
+        <v>1715.910706</v>
       </c>
       <c r="I9">
-        <v>0.1185683168294113</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="J9">
-        <v>0.1185683168294113</v>
+        <v>0.8776301728469489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.204035667047674</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N9">
-        <v>0.204035667047674</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q9">
-        <v>15.69677421009586</v>
+        <v>10235.00145307966</v>
       </c>
       <c r="R9">
-        <v>15.69677421009586</v>
+        <v>92115.01307771693</v>
       </c>
       <c r="S9">
-        <v>0.001216711623497981</v>
+        <v>0.7712312135166314</v>
       </c>
       <c r="T9">
-        <v>0.001216711623497981</v>
+        <v>0.7712312135166314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09526533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.285796</v>
+      </c>
+      <c r="I10">
+        <v>0.0001461749681973058</v>
+      </c>
+      <c r="J10">
+        <v>0.0001461749681973059</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.353194</v>
+      </c>
+      <c r="N10">
+        <v>1.059582</v>
+      </c>
+      <c r="O10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q10">
+        <v>0.03364714414133333</v>
+      </c>
+      <c r="R10">
+        <v>0.302824297272</v>
+      </c>
+      <c r="S10">
+        <v>2.535390730177315E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.535390730177316E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09526533333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.285796</v>
+      </c>
+      <c r="I11">
+        <v>0.0001461749681973058</v>
+      </c>
+      <c r="J11">
+        <v>0.0001461749681973059</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.670859</v>
+      </c>
+      <c r="O11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q11">
+        <v>0.1800787576404444</v>
+      </c>
+      <c r="R11">
+        <v>1.620708818764</v>
+      </c>
+      <c r="S11">
+        <v>1.356935408561357E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.356935408561358E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.09526533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.285796</v>
+      </c>
+      <c r="I12">
+        <v>0.0001461749681973058</v>
+      </c>
+      <c r="J12">
+        <v>0.0001461749681973059</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q12">
+        <v>0.02145505502622222</v>
+      </c>
+      <c r="R12">
+        <v>0.193095495236</v>
+      </c>
+      <c r="S12">
+        <v>1.616688400074493E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.616688400074493E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.09526533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.285796</v>
+      </c>
+      <c r="I13">
+        <v>0.0001461749681973058</v>
+      </c>
+      <c r="J13">
+        <v>0.0001461749681973059</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N13">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q13">
+        <v>1.704705533368444</v>
+      </c>
+      <c r="R13">
+        <v>15.342349800316</v>
+      </c>
+      <c r="S13">
+        <v>0.0001284535349814404</v>
+      </c>
+      <c r="T13">
+        <v>0.0001284535349814405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>77.07861566666666</v>
+      </c>
+      <c r="H14">
+        <v>231.235847</v>
+      </c>
+      <c r="I14">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="J14">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.353194</v>
+      </c>
+      <c r="N14">
+        <v>1.059582</v>
+      </c>
+      <c r="O14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q14">
+        <v>27.22370458177267</v>
+      </c>
+      <c r="R14">
+        <v>245.013341235954</v>
+      </c>
+      <c r="S14">
+        <v>0.002051369588687385</v>
+      </c>
+      <c r="T14">
+        <v>0.002051369588687386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>77.07861566666666</v>
+      </c>
+      <c r="H15">
+        <v>231.235847</v>
+      </c>
+      <c r="I15">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="J15">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.670859</v>
+      </c>
+      <c r="O15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q15">
+        <v>145.7006537869526</v>
+      </c>
+      <c r="R15">
+        <v>1311.305884082573</v>
+      </c>
+      <c r="S15">
+        <v>0.01097888383752665</v>
+      </c>
+      <c r="T15">
+        <v>0.01097888383752665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>76.9315210287632</v>
-      </c>
-      <c r="H10">
-        <v>76.9315210287632</v>
-      </c>
-      <c r="I10">
-        <v>0.1185683168294113</v>
-      </c>
-      <c r="J10">
-        <v>0.1185683168294113</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>17.7992158558983</v>
-      </c>
-      <c r="N10">
-        <v>17.7992158558983</v>
-      </c>
-      <c r="O10">
-        <v>0.8951870273071072</v>
-      </c>
-      <c r="P10">
-        <v>0.8951870273071072</v>
-      </c>
-      <c r="Q10">
-        <v>1369.320748913535</v>
-      </c>
-      <c r="R10">
-        <v>1369.320748913535</v>
-      </c>
-      <c r="S10">
-        <v>0.1061408190753279</v>
-      </c>
-      <c r="T10">
-        <v>0.1061408190753279</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>77.07861566666666</v>
+      </c>
+      <c r="H16">
+        <v>231.235847</v>
+      </c>
+      <c r="I16">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="J16">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q16">
+        <v>17.35915765588078</v>
+      </c>
+      <c r="R16">
+        <v>156.232418902927</v>
+      </c>
+      <c r="S16">
+        <v>0.001308052987187715</v>
+      </c>
+      <c r="T16">
+        <v>0.001308052987187715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>77.07861566666666</v>
+      </c>
+      <c r="H17">
+        <v>231.235847</v>
+      </c>
+      <c r="I17">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="J17">
+        <v>0.118269299015039</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N17">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q17">
+        <v>1379.267127230749</v>
+      </c>
+      <c r="R17">
+        <v>12413.40414507674</v>
+      </c>
+      <c r="S17">
+        <v>0.1039309926016372</v>
+      </c>
+      <c r="T17">
+        <v>0.1039309926016372</v>
       </c>
     </row>
   </sheetData>
